--- a/Thesis_Code_3/compare_data_to_vesta_model.xlsx
+++ b/Thesis_Code_3/compare_data_to_vesta_model.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scotthull/Documents - Scott’s MacBook Pro/Graduate Research/Masters_Thesis_Code/Thesis_Code_3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9517BF7A-67A5-4F4B-B6FF-9C9481D51D45}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4F1F017-ACE8-2248-97AE-5639CF9E0887}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="10940" windowHeight="16380" xr2:uid="{6FD2D733-4C1B-D54B-80D4-B670BD3A0477}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="25100" windowHeight="16300" xr2:uid="{6FD2D733-4C1B-D54B-80D4-B670BD3A0477}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>Object</t>
   </si>
@@ -61,12 +61,21 @@
   </si>
   <si>
     <t>Eucrite</t>
+  </si>
+  <si>
+    <t>Terrestrial Standard</t>
+  </si>
+  <si>
+    <t>182W/184W</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="170" formatCode="0.0000000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -103,9 +112,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -420,113 +430,159 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F049643-288C-D34A-9212-D02AB455AB27}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="4" width="14.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1">
+        <v>0.8649</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
+      <c r="B5">
         <v>-3.49</v>
       </c>
-      <c r="C2">
+      <c r="C5">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="D5" s="2">
+        <f>((B5/10^4)+1)*$B$1</f>
+        <v>0.86459814989999995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B3">
+      <c r="B6">
         <v>-3.4</v>
       </c>
-      <c r="C3">
+      <c r="C6">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="D6" s="2">
+        <f t="shared" ref="D6:D12" si="0">((B6/10^4)+1)*$B$1</f>
+        <v>0.86460593399999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B4">
+      <c r="B7">
         <v>-3.18</v>
       </c>
-      <c r="C4">
+      <c r="C7">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="D7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.86462496179999992</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B5">
+      <c r="B8">
         <v>0.02</v>
       </c>
-      <c r="C5">
+      <c r="C8">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="D8" s="2">
+        <f t="shared" si="0"/>
+        <v>0.86490172980000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B6">
+      <c r="B9">
         <v>3</v>
       </c>
-      <c r="C6">
+      <c r="C9">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="D9" s="2">
+        <f t="shared" si="0"/>
+        <v>0.86515946999999993</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="B7">
+      <c r="B10">
         <v>0.37</v>
       </c>
-      <c r="C7">
+      <c r="C10">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="D10" s="2">
+        <f t="shared" si="0"/>
+        <v>0.86493200130000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="B8">
+      <c r="B11">
         <f>9/100</f>
         <v>0.09</v>
       </c>
-      <c r="C8">
+      <c r="C11">
         <f>10/100</f>
         <v>0.1</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="D11" s="2">
+        <f t="shared" si="0"/>
+        <v>0.86490778409999991</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B12" s="1">
         <v>19.136605400000001</v>
       </c>
-      <c r="C9">
+      <c r="C12">
         <v>0</v>
+      </c>
+      <c r="D12" s="2">
+        <f t="shared" si="0"/>
+        <v>0.86655512500104603</v>
       </c>
     </row>
   </sheetData>
